--- a/biology/Zoologie/Anneau_oculaire/Anneau_oculaire.xlsx
+++ b/biology/Zoologie/Anneau_oculaire/Anneau_oculaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les oiseaux, l’anneau oculaire est une partie anatomique nue, plus ou moins développée et plus ou moins colorée, qui forme un cercle autour de l'œil. Chez certaines espèces, l'anneau oculaire est particulièrement contrasté. 
 </t>
